--- a/Data/usage.xlsx
+++ b/Data/usage.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Development/machine-learning/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Development/business-analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4592472A-4C6E-7641-91E3-17D5D9380588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E852D5DD-5B99-4742-B3A0-96784C0FA98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8260" yWindow="6300" windowWidth="27640" windowHeight="16940" xr2:uid="{E933245D-5326-4B4B-84F6-669B88FE55F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,9 +34,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Part Number</t>
+  </si>
+  <si>
+    <t>4474-954261</t>
+  </si>
+  <si>
+    <t>2907-805034</t>
+  </si>
+  <si>
+    <t>4238-795393</t>
+  </si>
+  <si>
+    <t>9771-424291</t>
+  </si>
+  <si>
+    <t>6067-292422</t>
+  </si>
+  <si>
+    <t>4426-435883</t>
+  </si>
+  <si>
+    <t>7084-233916</t>
+  </si>
+  <si>
+    <t>6784-864241</t>
+  </si>
+  <si>
+    <t>5355-548468</t>
+  </si>
+  <si>
+    <t>7760-287484</t>
+  </si>
+  <si>
+    <t>9085-142304</t>
+  </si>
+  <si>
+    <t>2018-83304</t>
+  </si>
+  <si>
+    <t>9552-420805</t>
+  </si>
+  <si>
+    <t>8179-267891</t>
+  </si>
+  <si>
+    <t>8490-896845</t>
+  </si>
+  <si>
+    <t>3715-392031</t>
+  </si>
+  <si>
+    <t>2572-75719</t>
+  </si>
+  <si>
+    <t>4148-586886</t>
+  </si>
+  <si>
+    <t>1252-656814</t>
+  </si>
+  <si>
+    <t>5688-905381</t>
+  </si>
+  <si>
+    <t>3017-534841</t>
+  </si>
+  <si>
+    <t>8923-748830</t>
+  </si>
+  <si>
+    <t>6756-799349</t>
+  </si>
+  <si>
+    <t>547-944290</t>
+  </si>
+  <si>
+    <t>9700-386969</t>
+  </si>
+  <si>
+    <t>3489-662983</t>
+  </si>
+  <si>
+    <t>5604-993318</t>
+  </si>
+  <si>
+    <t>5478-274327</t>
+  </si>
+  <si>
+    <t>2480-883099</t>
+  </si>
+  <si>
+    <t>5556-1449</t>
+  </si>
+  <si>
+    <t>8902-429509</t>
+  </si>
+  <si>
+    <t>7535-48117</t>
+  </si>
+  <si>
+    <t>4347-394698</t>
+  </si>
+  <si>
+    <t>2835-370137</t>
+  </si>
+  <si>
+    <t>7065-979082</t>
+  </si>
+  <si>
+    <t>3999-684216</t>
+  </si>
+  <si>
+    <t>3388-843676</t>
+  </si>
+  <si>
+    <t>6846-846787</t>
+  </si>
+  <si>
+    <t>3087-854652</t>
+  </si>
+  <si>
+    <t>1963-936544</t>
+  </si>
+  <si>
+    <t>9675-686351</t>
+  </si>
+  <si>
+    <t>6035-586763</t>
+  </si>
+  <si>
+    <t>3304-28731</t>
+  </si>
+  <si>
+    <t>4227-562846</t>
+  </si>
+  <si>
+    <t>5401-436916</t>
+  </si>
+  <si>
+    <t>5123-475684</t>
+  </si>
+  <si>
+    <t>3569-211518</t>
+  </si>
+  <si>
+    <t>5225-250176</t>
+  </si>
+  <si>
+    <t>5284-389832</t>
+  </si>
+  <si>
+    <t>9779-529481</t>
+  </si>
+  <si>
+    <t>905-338463</t>
+  </si>
+  <si>
+    <t>1473-432528</t>
+  </si>
+  <si>
+    <t>7593-206210</t>
+  </si>
+  <si>
+    <t>2888-479313</t>
   </si>
 </sst>
 </file>
@@ -71,9 +234,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -391,773 +553,776 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E807808-3891-EF45-A3B1-C90C87D8FFA3}">
   <dimension ref="A1:IR55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GZ1" workbookViewId="0">
-      <selection activeCell="IS11" sqref="IS11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="1">
         <v>25</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="1">
         <v>27</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="1">
         <v>28</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="1">
         <v>29</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="1">
         <v>30</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="1">
         <v>31</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="1">
         <v>32</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="1">
         <v>33</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="1">
         <v>35</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="1">
         <v>36</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="1">
         <v>37</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="1">
         <v>38</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="1">
         <v>39</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AO1" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AP1" s="1">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AQ1" s="1">
         <v>42</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AR1" s="1">
         <v>43</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AS1" s="1">
         <v>44</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AT1" s="1">
         <v>45</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AU1" s="1">
         <v>46</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AV1" s="1">
         <v>47</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="1">
         <v>48</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AX1" s="1">
         <v>49</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AY1" s="1">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="1">
         <v>51</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="1">
         <v>52</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BB1" s="1">
         <v>53</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BC1" s="1">
         <v>54</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BD1" s="1">
         <v>55</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BE1" s="1">
         <v>56</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="BF1" s="1">
         <v>57</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="1">
         <v>58</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="BH1" s="1">
         <v>59</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="1">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="1">
         <v>61</v>
       </c>
-      <c r="BK1" s="2">
+      <c r="BK1" s="1">
         <v>62</v>
       </c>
-      <c r="BL1" s="2">
+      <c r="BL1" s="1">
         <v>63</v>
       </c>
-      <c r="BM1" s="2">
+      <c r="BM1" s="1">
         <v>64</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="BN1" s="1">
         <v>65</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="BO1" s="1">
         <v>66</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="BP1" s="1">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2">
+      <c r="BQ1" s="1">
         <v>68</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="BR1" s="1">
         <v>69</v>
       </c>
-      <c r="BS1" s="2">
+      <c r="BS1" s="1">
         <v>70</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="BT1" s="1">
         <v>71</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="BU1" s="1">
         <v>72</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="BV1" s="1">
         <v>73</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="BW1" s="1">
         <v>74</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="BX1" s="1">
         <v>75</v>
       </c>
-      <c r="BY1" s="2">
+      <c r="BY1" s="1">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="BZ1" s="1">
         <v>77</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="CA1" s="1">
         <v>78</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="CB1" s="1">
         <v>79</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="CC1" s="1">
         <v>80</v>
       </c>
-      <c r="CD1" s="2">
+      <c r="CD1" s="1">
         <v>81</v>
       </c>
-      <c r="CE1" s="2">
+      <c r="CE1" s="1">
         <v>82</v>
       </c>
-      <c r="CF1" s="2">
+      <c r="CF1" s="1">
         <v>83</v>
       </c>
-      <c r="CG1" s="2">
+      <c r="CG1" s="1">
         <v>84</v>
       </c>
-      <c r="CH1" s="2">
+      <c r="CH1" s="1">
         <v>85</v>
       </c>
-      <c r="CI1" s="2">
+      <c r="CI1" s="1">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2">
+      <c r="CJ1" s="1">
         <v>87</v>
       </c>
-      <c r="CK1" s="2">
+      <c r="CK1" s="1">
         <v>88</v>
       </c>
-      <c r="CL1" s="2">
+      <c r="CL1" s="1">
         <v>89</v>
       </c>
-      <c r="CM1" s="2">
+      <c r="CM1" s="1">
         <v>90</v>
       </c>
-      <c r="CN1" s="2">
+      <c r="CN1" s="1">
         <v>91</v>
       </c>
-      <c r="CO1" s="2">
+      <c r="CO1" s="1">
         <v>92</v>
       </c>
-      <c r="CP1" s="2">
+      <c r="CP1" s="1">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2">
+      <c r="CQ1" s="1">
         <v>94</v>
       </c>
-      <c r="CR1" s="2">
+      <c r="CR1" s="1">
         <v>95</v>
       </c>
-      <c r="CS1" s="2">
+      <c r="CS1" s="1">
         <v>96</v>
       </c>
-      <c r="CT1" s="2">
+      <c r="CT1" s="1">
         <v>97</v>
       </c>
-      <c r="CU1" s="2">
+      <c r="CU1" s="1">
         <v>98</v>
       </c>
-      <c r="CV1" s="2">
+      <c r="CV1" s="1">
         <v>99</v>
       </c>
-      <c r="CW1" s="2">
+      <c r="CW1" s="1">
         <v>100</v>
       </c>
-      <c r="CX1" s="2">
+      <c r="CX1" s="1">
         <v>101</v>
       </c>
-      <c r="CY1" s="2">
+      <c r="CY1" s="1">
         <v>102</v>
       </c>
-      <c r="CZ1" s="2">
+      <c r="CZ1" s="1">
         <v>103</v>
       </c>
-      <c r="DA1" s="2">
+      <c r="DA1" s="1">
         <v>104</v>
       </c>
-      <c r="DB1" s="2">
+      <c r="DB1" s="1">
         <v>105</v>
       </c>
-      <c r="DC1" s="2">
+      <c r="DC1" s="1">
         <v>106</v>
       </c>
-      <c r="DD1" s="2">
+      <c r="DD1" s="1">
         <v>107</v>
       </c>
-      <c r="DE1" s="2">
+      <c r="DE1" s="1">
         <v>108</v>
       </c>
-      <c r="DF1" s="2">
+      <c r="DF1" s="1">
         <v>109</v>
       </c>
-      <c r="DG1" s="2">
+      <c r="DG1" s="1">
         <v>110</v>
       </c>
-      <c r="DH1" s="2">
+      <c r="DH1" s="1">
         <v>111</v>
       </c>
-      <c r="DI1" s="2">
+      <c r="DI1" s="1">
         <v>112</v>
       </c>
-      <c r="DJ1" s="2">
+      <c r="DJ1" s="1">
         <v>113</v>
       </c>
-      <c r="DK1" s="2">
+      <c r="DK1" s="1">
         <v>114</v>
       </c>
-      <c r="DL1" s="2">
+      <c r="DL1" s="1">
         <v>115</v>
       </c>
-      <c r="DM1" s="2">
+      <c r="DM1" s="1">
         <v>116</v>
       </c>
-      <c r="DN1" s="2">
+      <c r="DN1" s="1">
         <v>117</v>
       </c>
-      <c r="DO1" s="2">
+      <c r="DO1" s="1">
         <v>118</v>
       </c>
-      <c r="DP1" s="2">
+      <c r="DP1" s="1">
         <v>119</v>
       </c>
-      <c r="DQ1" s="2">
+      <c r="DQ1" s="1">
         <v>120</v>
       </c>
-      <c r="DR1" s="2">
+      <c r="DR1" s="1">
         <v>121</v>
       </c>
-      <c r="DS1" s="2">
+      <c r="DS1" s="1">
         <v>122</v>
       </c>
-      <c r="DT1" s="2">
+      <c r="DT1" s="1">
         <v>123</v>
       </c>
-      <c r="DU1" s="2">
+      <c r="DU1" s="1">
         <v>124</v>
       </c>
-      <c r="DV1" s="2">
+      <c r="DV1" s="1">
         <v>125</v>
       </c>
-      <c r="DW1" s="2">
+      <c r="DW1" s="1">
         <v>126</v>
       </c>
-      <c r="DX1" s="2">
+      <c r="DX1" s="1">
         <v>127</v>
       </c>
-      <c r="DY1" s="2">
+      <c r="DY1" s="1">
         <v>128</v>
       </c>
-      <c r="DZ1" s="2">
+      <c r="DZ1" s="1">
         <v>129</v>
       </c>
-      <c r="EA1" s="2">
+      <c r="EA1" s="1">
         <v>130</v>
       </c>
-      <c r="EB1" s="2">
+      <c r="EB1" s="1">
         <v>131</v>
       </c>
-      <c r="EC1" s="2">
+      <c r="EC1" s="1">
         <v>132</v>
       </c>
-      <c r="ED1" s="2">
+      <c r="ED1" s="1">
         <v>133</v>
       </c>
-      <c r="EE1" s="2">
+      <c r="EE1" s="1">
         <v>134</v>
       </c>
-      <c r="EF1" s="2">
+      <c r="EF1" s="1">
         <v>135</v>
       </c>
-      <c r="EG1" s="2">
+      <c r="EG1" s="1">
         <v>136</v>
       </c>
-      <c r="EH1" s="2">
+      <c r="EH1" s="1">
         <v>137</v>
       </c>
-      <c r="EI1" s="2">
+      <c r="EI1" s="1">
         <v>138</v>
       </c>
-      <c r="EJ1" s="2">
+      <c r="EJ1" s="1">
         <v>139</v>
       </c>
-      <c r="EK1" s="2">
+      <c r="EK1" s="1">
         <v>140</v>
       </c>
-      <c r="EL1" s="2">
+      <c r="EL1" s="1">
         <v>141</v>
       </c>
-      <c r="EM1" s="2">
+      <c r="EM1" s="1">
         <v>142</v>
       </c>
-      <c r="EN1" s="2">
+      <c r="EN1" s="1">
         <v>143</v>
       </c>
-      <c r="EO1" s="2">
+      <c r="EO1" s="1">
         <v>144</v>
       </c>
-      <c r="EP1" s="2">
+      <c r="EP1" s="1">
         <v>145</v>
       </c>
-      <c r="EQ1" s="2">
+      <c r="EQ1" s="1">
         <v>146</v>
       </c>
-      <c r="ER1" s="2">
+      <c r="ER1" s="1">
         <v>147</v>
       </c>
-      <c r="ES1" s="2">
+      <c r="ES1" s="1">
         <v>148</v>
       </c>
-      <c r="ET1" s="2">
+      <c r="ET1" s="1">
         <v>149</v>
       </c>
-      <c r="EU1" s="2">
+      <c r="EU1" s="1">
         <v>150</v>
       </c>
-      <c r="EV1" s="2">
+      <c r="EV1" s="1">
         <v>151</v>
       </c>
-      <c r="EW1" s="2">
+      <c r="EW1" s="1">
         <v>152</v>
       </c>
-      <c r="EX1" s="2">
+      <c r="EX1" s="1">
         <v>153</v>
       </c>
-      <c r="EY1" s="2">
+      <c r="EY1" s="1">
         <v>154</v>
       </c>
-      <c r="EZ1" s="2">
+      <c r="EZ1" s="1">
         <v>155</v>
       </c>
-      <c r="FA1" s="2">
+      <c r="FA1" s="1">
         <v>156</v>
       </c>
-      <c r="FB1" s="2">
+      <c r="FB1" s="1">
         <v>157</v>
       </c>
-      <c r="FC1" s="2">
+      <c r="FC1" s="1">
         <v>158</v>
       </c>
-      <c r="FD1" s="2">
+      <c r="FD1" s="1">
         <v>159</v>
       </c>
-      <c r="FE1" s="2">
+      <c r="FE1" s="1">
         <v>160</v>
       </c>
-      <c r="FF1" s="2">
+      <c r="FF1" s="1">
         <v>161</v>
       </c>
-      <c r="FG1" s="2">
+      <c r="FG1" s="1">
         <v>162</v>
       </c>
-      <c r="FH1" s="2">
+      <c r="FH1" s="1">
         <v>163</v>
       </c>
-      <c r="FI1" s="2">
+      <c r="FI1" s="1">
         <v>164</v>
       </c>
-      <c r="FJ1" s="2">
+      <c r="FJ1" s="1">
         <v>165</v>
       </c>
-      <c r="FK1" s="2">
+      <c r="FK1" s="1">
         <v>166</v>
       </c>
-      <c r="FL1" s="2">
+      <c r="FL1" s="1">
         <v>167</v>
       </c>
-      <c r="FM1" s="2">
+      <c r="FM1" s="1">
         <v>168</v>
       </c>
-      <c r="FN1" s="2">
+      <c r="FN1" s="1">
         <v>169</v>
       </c>
-      <c r="FO1" s="2">
+      <c r="FO1" s="1">
         <v>170</v>
       </c>
-      <c r="FP1" s="2">
+      <c r="FP1" s="1">
         <v>171</v>
       </c>
-      <c r="FQ1" s="2">
+      <c r="FQ1" s="1">
         <v>172</v>
       </c>
-      <c r="FR1" s="2">
+      <c r="FR1" s="1">
         <v>173</v>
       </c>
-      <c r="FS1" s="2">
+      <c r="FS1" s="1">
         <v>174</v>
       </c>
-      <c r="FT1" s="2">
+      <c r="FT1" s="1">
         <v>175</v>
       </c>
-      <c r="FU1" s="2">
+      <c r="FU1" s="1">
         <v>176</v>
       </c>
-      <c r="FV1" s="2">
+      <c r="FV1" s="1">
         <v>177</v>
       </c>
-      <c r="FW1" s="2">
+      <c r="FW1" s="1">
         <v>178</v>
       </c>
-      <c r="FX1" s="2">
+      <c r="FX1" s="1">
         <v>179</v>
       </c>
-      <c r="FY1" s="2">
+      <c r="FY1" s="1">
         <v>180</v>
       </c>
-      <c r="FZ1" s="2">
+      <c r="FZ1" s="1">
         <v>181</v>
       </c>
-      <c r="GA1" s="2">
+      <c r="GA1" s="1">
         <v>182</v>
       </c>
-      <c r="GB1" s="2">
+      <c r="GB1" s="1">
         <v>183</v>
       </c>
-      <c r="GC1" s="2">
+      <c r="GC1" s="1">
         <v>184</v>
       </c>
-      <c r="GD1" s="2">
+      <c r="GD1" s="1">
         <v>185</v>
       </c>
-      <c r="GE1" s="2">
+      <c r="GE1" s="1">
         <v>186</v>
       </c>
-      <c r="GF1" s="2">
+      <c r="GF1" s="1">
         <v>187</v>
       </c>
-      <c r="GG1" s="2">
+      <c r="GG1" s="1">
         <v>188</v>
       </c>
-      <c r="GH1" s="2">
+      <c r="GH1" s="1">
         <v>189</v>
       </c>
-      <c r="GI1" s="2">
+      <c r="GI1" s="1">
         <v>190</v>
       </c>
-      <c r="GJ1" s="2">
+      <c r="GJ1" s="1">
         <v>191</v>
       </c>
-      <c r="GK1" s="2">
+      <c r="GK1" s="1">
         <v>192</v>
       </c>
-      <c r="GL1" s="2">
+      <c r="GL1" s="1">
         <v>193</v>
       </c>
-      <c r="GM1" s="2">
+      <c r="GM1" s="1">
         <v>194</v>
       </c>
-      <c r="GN1" s="2">
+      <c r="GN1" s="1">
         <v>195</v>
       </c>
-      <c r="GO1" s="2">
+      <c r="GO1" s="1">
         <v>196</v>
       </c>
-      <c r="GP1" s="2">
+      <c r="GP1" s="1">
         <v>197</v>
       </c>
-      <c r="GQ1" s="2">
+      <c r="GQ1" s="1">
         <v>198</v>
       </c>
-      <c r="GR1" s="2">
+      <c r="GR1" s="1">
         <v>199</v>
       </c>
-      <c r="GS1" s="2">
+      <c r="GS1" s="1">
         <v>200</v>
       </c>
-      <c r="GT1" s="2">
+      <c r="GT1" s="1">
         <v>201</v>
       </c>
-      <c r="GU1" s="2">
+      <c r="GU1" s="1">
         <v>202</v>
       </c>
-      <c r="GV1" s="2">
+      <c r="GV1" s="1">
         <v>203</v>
       </c>
-      <c r="GW1" s="2">
+      <c r="GW1" s="1">
         <v>204</v>
       </c>
-      <c r="GX1" s="2">
+      <c r="GX1" s="1">
         <v>205</v>
       </c>
-      <c r="GY1" s="2">
+      <c r="GY1" s="1">
         <v>206</v>
       </c>
-      <c r="GZ1" s="2">
+      <c r="GZ1" s="1">
         <v>207</v>
       </c>
-      <c r="HA1" s="2">
+      <c r="HA1" s="1">
         <v>208</v>
       </c>
-      <c r="HB1" s="2">
+      <c r="HB1" s="1">
         <v>209</v>
       </c>
-      <c r="HC1" s="2">
+      <c r="HC1" s="1">
         <v>210</v>
       </c>
-      <c r="HD1" s="2">
+      <c r="HD1" s="1">
         <v>211</v>
       </c>
-      <c r="HE1" s="2">
+      <c r="HE1" s="1">
         <v>212</v>
       </c>
-      <c r="HF1" s="2">
+      <c r="HF1" s="1">
         <v>213</v>
       </c>
-      <c r="HG1" s="2">
+      <c r="HG1" s="1">
         <v>214</v>
       </c>
-      <c r="HH1" s="2">
+      <c r="HH1" s="1">
         <v>215</v>
       </c>
-      <c r="HI1" s="2">
+      <c r="HI1" s="1">
         <v>216</v>
       </c>
-      <c r="HJ1" s="2">
+      <c r="HJ1" s="1">
         <v>217</v>
       </c>
-      <c r="HK1" s="2">
+      <c r="HK1" s="1">
         <v>218</v>
       </c>
-      <c r="HL1" s="2">
+      <c r="HL1" s="1">
         <v>219</v>
       </c>
-      <c r="HM1" s="2">
+      <c r="HM1" s="1">
         <v>220</v>
       </c>
-      <c r="HN1" s="2">
+      <c r="HN1" s="1">
         <v>221</v>
       </c>
-      <c r="HO1" s="2">
+      <c r="HO1" s="1">
         <v>222</v>
       </c>
-      <c r="HP1" s="2">
+      <c r="HP1" s="1">
         <v>223</v>
       </c>
-      <c r="HQ1" s="2">
+      <c r="HQ1" s="1">
         <v>224</v>
       </c>
-      <c r="HR1" s="2">
+      <c r="HR1" s="1">
         <v>225</v>
       </c>
-      <c r="HS1" s="2">
+      <c r="HS1" s="1">
         <v>226</v>
       </c>
-      <c r="HT1" s="2">
+      <c r="HT1" s="1">
         <v>227</v>
       </c>
-      <c r="HU1" s="2">
+      <c r="HU1" s="1">
         <v>228</v>
       </c>
-      <c r="HV1" s="2">
+      <c r="HV1" s="1">
         <v>229</v>
       </c>
-      <c r="HW1" s="2">
+      <c r="HW1" s="1">
         <v>230</v>
       </c>
-      <c r="HX1" s="2">
+      <c r="HX1" s="1">
         <v>231</v>
       </c>
-      <c r="HY1" s="2">
+      <c r="HY1" s="1">
         <v>232</v>
       </c>
-      <c r="HZ1" s="2">
+      <c r="HZ1" s="1">
         <v>233</v>
       </c>
-      <c r="IA1" s="2">
+      <c r="IA1" s="1">
         <v>234</v>
       </c>
-      <c r="IB1" s="2">
+      <c r="IB1" s="1">
         <v>235</v>
       </c>
-      <c r="IC1" s="2">
+      <c r="IC1" s="1">
         <v>236</v>
       </c>
-      <c r="ID1" s="2">
+      <c r="ID1" s="1">
         <v>237</v>
       </c>
-      <c r="IE1" s="2">
+      <c r="IE1" s="1">
         <v>238</v>
       </c>
-      <c r="IF1" s="2">
+      <c r="IF1" s="1">
         <v>239</v>
       </c>
-      <c r="IG1" s="2">
+      <c r="IG1" s="1">
         <v>240</v>
       </c>
-      <c r="IH1" s="2">
+      <c r="IH1" s="1">
         <v>241</v>
       </c>
-      <c r="II1" s="2">
+      <c r="II1" s="1">
         <v>242</v>
       </c>
-      <c r="IJ1" s="2">
+      <c r="IJ1" s="1">
         <v>243</v>
       </c>
-      <c r="IK1" s="2">
+      <c r="IK1" s="1">
         <v>244</v>
       </c>
-      <c r="IL1" s="2">
+      <c r="IL1" s="1">
         <v>245</v>
       </c>
-      <c r="IM1" s="2">
+      <c r="IM1" s="1">
         <v>246</v>
       </c>
-      <c r="IN1" s="2">
+      <c r="IN1" s="1">
         <v>247</v>
       </c>
-      <c r="IO1" s="2">
+      <c r="IO1" s="1">
         <v>248</v>
       </c>
-      <c r="IP1" s="2">
+      <c r="IP1" s="1">
         <v>249</v>
       </c>
-      <c r="IQ1" s="2">
+      <c r="IQ1" s="1">
         <v>250</v>
       </c>
-      <c r="IR1" s="2">
+      <c r="IR1" s="1">
         <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>44075</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1914,8 +2079,8 @@
       </c>
     </row>
     <row r="3" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>44044</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2672,8 +2837,8 @@
       </c>
     </row>
     <row r="4" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>44013</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3430,8 +3595,8 @@
       </c>
     </row>
     <row r="5" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43983</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4188,8 +4353,8 @@
       </c>
     </row>
     <row r="6" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43952</v>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -4946,8 +5111,8 @@
       </c>
     </row>
     <row r="7" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43922</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5704,8 +5869,8 @@
       </c>
     </row>
     <row r="8" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43891</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -6462,8 +6627,8 @@
       </c>
     </row>
     <row r="9" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43862</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -7220,8 +7385,8 @@
       </c>
     </row>
     <row r="10" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43831</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -7978,8 +8143,8 @@
       </c>
     </row>
     <row r="11" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43800</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>280</v>
@@ -8736,8 +8901,8 @@
       </c>
     </row>
     <row r="12" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43770</v>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>160</v>
@@ -9494,8 +9659,8 @@
       </c>
     </row>
     <row r="13" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43739</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>80</v>
@@ -10252,8 +10417,8 @@
       </c>
     </row>
     <row r="14" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43709</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -11010,8 +11175,8 @@
       </c>
     </row>
     <row r="15" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43678</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>80</v>
@@ -11768,8 +11933,8 @@
       </c>
     </row>
     <row r="16" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43647</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>180</v>
@@ -12526,8 +12691,8 @@
       </c>
     </row>
     <row r="17" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43617</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -13284,8 +13449,8 @@
       </c>
     </row>
     <row r="18" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43586</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>155</v>
@@ -14042,8 +14207,8 @@
       </c>
     </row>
     <row r="19" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43556</v>
+      <c r="A19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>80</v>
@@ -14800,8 +14965,8 @@
       </c>
     </row>
     <row r="20" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43525</v>
+      <c r="A20" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -15558,8 +15723,8 @@
       </c>
     </row>
     <row r="21" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43497</v>
+      <c r="A21" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>240</v>
@@ -16316,8 +16481,8 @@
       </c>
     </row>
     <row r="22" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43466</v>
+      <c r="A22" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -17074,8 +17239,8 @@
       </c>
     </row>
     <row r="23" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43435</v>
+      <c r="A23" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -17832,8 +17997,8 @@
       </c>
     </row>
     <row r="24" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43405</v>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B24">
         <v>80</v>
@@ -18590,8 +18755,8 @@
       </c>
     </row>
     <row r="25" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43374</v>
+      <c r="A25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -19348,8 +19513,8 @@
       </c>
     </row>
     <row r="26" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43344</v>
+      <c r="A26" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -20106,8 +20271,8 @@
       </c>
     </row>
     <row r="27" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43313</v>
+      <c r="A27" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -20864,8 +21029,8 @@
       </c>
     </row>
     <row r="28" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43282</v>
+      <c r="A28" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B28">
         <v>140</v>
@@ -21622,8 +21787,8 @@
       </c>
     </row>
     <row r="29" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43252</v>
+      <c r="A29" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -22380,8 +22545,8 @@
       </c>
     </row>
     <row r="30" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43221</v>
+      <c r="A30" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B30">
         <v>100</v>
@@ -23138,8 +23303,8 @@
       </c>
     </row>
     <row r="31" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43191</v>
+      <c r="A31" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -23896,8 +24061,8 @@
       </c>
     </row>
     <row r="32" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43160</v>
+      <c r="A32" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B32">
         <v>40</v>
@@ -24654,8 +24819,8 @@
       </c>
     </row>
     <row r="33" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43132</v>
+      <c r="A33" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -25412,8 +25577,8 @@
       </c>
     </row>
     <row r="34" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43101</v>
+      <c r="A34" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -26170,8 +26335,8 @@
       </c>
     </row>
     <row r="35" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>43070</v>
+      <c r="A35" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -26928,8 +27093,8 @@
       </c>
     </row>
     <row r="36" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>43040</v>
+      <c r="A36" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -27686,8 +27851,8 @@
       </c>
     </row>
     <row r="37" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43009</v>
+      <c r="A37" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -28444,8 +28609,8 @@
       </c>
     </row>
     <row r="38" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>42979</v>
+      <c r="A38" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -29202,8 +29367,8 @@
       </c>
     </row>
     <row r="39" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>42948</v>
+      <c r="A39" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B39">
         <v>460</v>
@@ -29960,8 +30125,8 @@
       </c>
     </row>
     <row r="40" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>42917</v>
+      <c r="A40" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -30718,8 +30883,8 @@
       </c>
     </row>
     <row r="41" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>42887</v>
+      <c r="A41" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -31476,8 +31641,8 @@
       </c>
     </row>
     <row r="42" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>42856</v>
+      <c r="A42" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -32234,8 +32399,8 @@
       </c>
     </row>
     <row r="43" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>42826</v>
+      <c r="A43" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -32992,8 +33157,8 @@
       </c>
     </row>
     <row r="44" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42795</v>
+      <c r="A44" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -33750,8 +33915,8 @@
       </c>
     </row>
     <row r="45" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>42767</v>
+      <c r="A45" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -34508,8 +34673,8 @@
       </c>
     </row>
     <row r="46" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>42736</v>
+      <c r="A46" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -35266,8 +35431,8 @@
       </c>
     </row>
     <row r="47" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>42705</v>
+      <c r="A47" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -36024,8 +36189,8 @@
       </c>
     </row>
     <row r="48" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>42675</v>
+      <c r="A48" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -36782,8 +36947,8 @@
       </c>
     </row>
     <row r="49" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>42644</v>
+      <c r="A49" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -37540,8 +37705,8 @@
       </c>
     </row>
     <row r="50" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>42614</v>
+      <c r="A50" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -38298,8 +38463,8 @@
       </c>
     </row>
     <row r="51" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>42583</v>
+      <c r="A51" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -39056,8 +39221,8 @@
       </c>
     </row>
     <row r="52" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>42552</v>
+      <c r="A52" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -39814,8 +39979,8 @@
       </c>
     </row>
     <row r="53" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>42522</v>
+      <c r="A53" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -40572,8 +40737,8 @@
       </c>
     </row>
     <row r="54" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>42491</v>
+      <c r="A54" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -41330,8 +41495,8 @@
       </c>
     </row>
     <row r="55" spans="1:252" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>42461</v>
+      <c r="A55" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
